--- a/webapps/glaf/WEB-INF/conf/report/templates/MedicalSpotCheckTotalV62.xlsx
+++ b/webapps/glaf/WEB-INF/conf/report/templates/MedicalSpotCheckTotalV62.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
   <si>
     <t>儿童体格生长状况评价统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,10 +106,6 @@
   </si>
   <si>
     <t>${sex}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身高别体重</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -385,6 +381,18 @@
   </si>
   <si>
     <t>民族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄别体重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄别身高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高别体重</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,6 +555,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -556,21 +576,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -580,17 +591,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -899,7 +907,7 @@
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,322 +918,322 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
     </row>
     <row r="2" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="1:24" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q3" s="1"/>
-      <c r="R3" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
+      <c r="R3" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
     </row>
     <row r="5" spans="1:24" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="K5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="P5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="Q5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="S5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="V5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="4" t="s">
+      <c r="W5" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="E6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="F6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="G6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="H6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="I6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="J6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="K6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="L6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="M6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="N6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="O6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="P6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="S6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="20" t="s">
+      <c r="T6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="20" t="s">
+      <c r="U6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="U6" s="20" t="s">
+      <c r="V6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="V6" s="20" t="s">
+      <c r="W6" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="W6" s="20" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="E7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="F7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="G7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="H7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="I7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="J7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="K7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="L7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="M7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="N7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="O7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="22" t="s">
+      <c r="P7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="22" t="s">
+      <c r="Q7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" s="22" t="s">
+      <c r="T7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="T7" s="22" t="s">
+      <c r="U7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="U7" s="22" t="s">
+      <c r="V7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="V7" s="22" t="s">
+      <c r="W7" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="W7" s="22" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/webapps/glaf/WEB-INF/conf/report/templates/MedicalSpotCheckTotalV62.xlsx
+++ b/webapps/glaf/WEB-INF/conf/report/templates/MedicalSpotCheckTotalV62.xlsx
@@ -492,7 +492,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -516,10 +516,289 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -530,7 +809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -556,49 +835,103 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -907,7 +1240,7 @@
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,124 +1251,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
     </row>
     <row r="2" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
     </row>
-    <row r="3" spans="1:24" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+    <row r="3" spans="1:24" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
       <c r="P3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q3" s="1"/>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="21" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="22" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="1:24" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1054,10 +1387,10 @@
       <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="26" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1075,10 +1408,10 @@
       <c r="O5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="38" t="s">
         <v>8</v>
       </c>
       <c r="R5" s="6" t="s">
@@ -1096,143 +1429,143 @@
       <c r="V5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="W5" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="U6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="S7" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="T7" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="V7" s="11" t="s">
+      <c r="V7" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="W7" s="11" t="s">
+      <c r="W7" s="24" t="s">
         <v>54</v>
       </c>
     </row>

--- a/webapps/glaf/WEB-INF/conf/report/templates/MedicalSpotCheckTotalV62.xlsx
+++ b/webapps/glaf/WEB-INF/conf/report/templates/MedicalSpotCheckTotalV62.xlsx
@@ -205,19 +205,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${row.model3.negative2DQty}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${row.model3.negative1DQty}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${row.model3.normalQty}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${row.model3.positive1DQty}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -393,6 +381,18 @@
   </si>
   <si>
     <t>身高别体重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${row.model3.negative2DQty}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${row.model3.negative1DQty}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${row.model3.positive1DQty}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -837,101 +837,101 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1240,7 +1240,7 @@
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,124 +1251,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
     </row>
     <row r="2" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
     </row>
     <row r="3" spans="1:24" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
       <c r="P3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q3" s="1"/>
-      <c r="R3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
+      <c r="R3" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="17"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="38"/>
     </row>
     <row r="5" spans="1:24" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>9</v>
@@ -1387,10 +1387,10 @@
       <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="15" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1400,7 +1400,7 @@
         <v>4</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>9</v>
@@ -1408,10 +1408,10 @@
       <c r="O5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="38" t="s">
+      <c r="Q5" s="24" t="s">
         <v>8</v>
       </c>
       <c r="R5" s="6" t="s">
@@ -1421,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="U5" s="6" t="s">
         <v>9</v>
@@ -1429,144 +1429,144 @@
       <c r="V5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="19" t="s">
+      <c r="W5" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="I6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="J6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="L6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="M6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="N6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="O6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="P6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="39" t="s">
+      <c r="Q6" s="25" t="s">
         <v>12</v>
       </c>
       <c r="R6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="T6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="U6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="W6" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="V6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="W6" s="21" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="G7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="H7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="I7" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="J7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="K7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="L7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="M7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="N7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="O7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="P7" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="Q7" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="T7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="36" t="s">
+      <c r="U7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S7" s="23" t="s">
+      <c r="V7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="T7" s="23" t="s">
+      <c r="W7" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="U7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="V7" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="W7" s="24" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
